--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47015.50734382168</v>
+        <v>-47015.50734382166</v>
       </c>
     </row>
     <row r="7">
@@ -26317,7 +26319,7 @@
         <v>37627.59193600625</v>
       </c>
       <c r="D2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="E2" t="n">
         <v>37627.59193600625</v>
@@ -26332,10 +26334,10 @@
         <v>37627.59193600625</v>
       </c>
       <c r="I2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="J2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="K2" t="n">
         <v>37627.59193600625</v>
@@ -26350,10 +26352,10 @@
         <v>37627.59193600625</v>
       </c>
       <c r="O2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="P2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
     </row>
     <row r="3">
@@ -26525,7 +26527,7 @@
         <v>-28252.22972342767</v>
       </c>
       <c r="D6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-28252.22972342767</v>
       </c>
       <c r="E6" t="n">
         <v>5375.370276572328</v>
@@ -26540,16 +26542,16 @@
         <v>5375.370276572328</v>
       </c>
       <c r="I6" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.370276572328</v>
       </c>
       <c r="J6" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.370276572328</v>
       </c>
       <c r="K6" t="n">
         <v>5375.370276572328</v>
       </c>
       <c r="L6" t="n">
-        <v>5375.370276572336</v>
+        <v>5375.370276572328</v>
       </c>
       <c r="M6" t="n">
         <v>5375.370276572328</v>
@@ -26558,10 +26560,10 @@
         <v>5375.370276572328</v>
       </c>
       <c r="O6" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.370276572328</v>
       </c>
       <c r="P6" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.370276572328</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47015.50734382166</v>
+        <v>-173776.4612130868</v>
       </c>
     </row>
     <row r="7">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28252.22972342767</v>
+        <v>-43402.90369346243</v>
       </c>
       <c r="C6" t="n">
-        <v>-28252.22972342767</v>
+        <v>-43402.90369346243</v>
       </c>
       <c r="D6" t="n">
-        <v>-28252.22972342767</v>
+        <v>-43402.90369346243</v>
       </c>
       <c r="E6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="F6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="G6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="H6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="I6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="J6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="K6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="L6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="M6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="N6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="O6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="P6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-173776.4612130868</v>
+        <v>-59691.60273074817</v>
       </c>
     </row>
     <row r="7">
@@ -26316,7 +26316,7 @@
         <v>37627.59193600625</v>
       </c>
       <c r="C2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="D2" t="n">
         <v>37627.59193600625</v>
@@ -26337,7 +26337,7 @@
         <v>37627.59193600625</v>
       </c>
       <c r="J2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="K2" t="n">
         <v>37627.59193600625</v>
@@ -26349,13 +26349,13 @@
         <v>37627.59193600625</v>
       </c>
       <c r="N2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="O2" t="n">
         <v>37627.59193600625</v>
       </c>
       <c r="P2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43402.90369346243</v>
+        <v>-29767.29712043115</v>
       </c>
       <c r="C6" t="n">
-        <v>-43402.90369346243</v>
+        <v>-29767.29712043115</v>
       </c>
       <c r="D6" t="n">
-        <v>-43402.90369346243</v>
+        <v>-29767.29712043115</v>
       </c>
       <c r="E6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568852</v>
       </c>
       <c r="F6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568852</v>
       </c>
       <c r="G6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568852</v>
       </c>
       <c r="H6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568852</v>
       </c>
       <c r="I6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568852</v>
       </c>
       <c r="J6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568845</v>
       </c>
       <c r="K6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568852</v>
       </c>
       <c r="L6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568852</v>
       </c>
       <c r="M6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568852</v>
       </c>
       <c r="N6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568845</v>
       </c>
       <c r="O6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568852</v>
       </c>
       <c r="P6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568845</v>
       </c>
     </row>
   </sheetData>
